--- a/MedicalLink/Templates/BC_PhauThuat_YeuCau_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCau_ThanhToan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGAY_THANHTOAN</t>
+  </si>
+  <si>
+    <t>Kỹ thuật viên hồi tỉnh</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].KTVHOITINH_TENBS</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].KTVHOITINH_TIEN</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -447,7 +456,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -476,30 +485,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,12 +523,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,89 +837,92 @@
     <col min="23" max="23" width="15.140625" style="9" customWidth="1"/>
     <col min="24" max="24" width="28.28515625" style="1" customWidth="1"/>
     <col min="25" max="25" width="15.140625" style="9" customWidth="1"/>
-    <col min="26" max="26" width="28.28515625" style="12" customWidth="1"/>
-    <col min="27" max="27" width="20" style="12" customWidth="1"/>
+    <col min="26" max="26" width="28.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="9" customWidth="1"/>
     <col min="28" max="28" width="28.28515625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="20" style="1" customWidth="1"/>
-    <col min="30" max="30" width="28.28515625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="20" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="29" width="20" style="12" customWidth="1"/>
+    <col min="30" max="30" width="28.28515625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="20" style="1" customWidth="1"/>
+    <col min="32" max="32" width="28.28515625" style="1" customWidth="1"/>
+    <col min="33" max="34" width="20" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="S2" s="10"/>
       <c r="U2" s="10"/>
       <c r="W2" s="10"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="AA2" s="10"/>
       <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36" t="s">
+    <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:32" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:34" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="32" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="30" t="s">
@@ -942,35 +954,39 @@
       </c>
       <c r="W7" s="31"/>
       <c r="X7" s="30" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="Y7" s="31"/>
       <c r="Z7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="28" t="s">
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="28" t="s">
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="26" t="s">
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+    <row r="8" spans="1:34" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1025,10 +1041,10 @@
       <c r="AA8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC8" s="18" t="s">
+      <c r="AB8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="AD8" s="18" t="s">
@@ -1037,9 +1053,15 @@
       <c r="AE8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AF8" s="27"/>
+      <c r="AF8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH8" s="29"/>
     </row>
-    <row r="9" spans="1:32" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1136,8 +1158,14 @@
       <c r="AF9" s="17">
         <v>32</v>
       </c>
+      <c r="AG9" s="17">
+        <v>33</v>
+      </c>
+      <c r="AH9" s="17">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1208,40 +1236,46 @@
         <v>53</v>
       </c>
       <c r="X10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="22" t="s">
+      <c r="AC10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC10" s="22" t="s">
+      <c r="AE10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" s="22" t="s">
+      <c r="AG10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF10" s="13" t="s">
+      <c r="AH10" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:34" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="16"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1290,8 +1324,8 @@
         <f>SUM(Y10:Y10)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="21">
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15">
         <f>SUM(AA10:AA10)</f>
         <v>0</v>
       </c>
@@ -1306,34 +1340,26 @@
         <v>0</v>
       </c>
       <c r="AF11" s="16"/>
+      <c r="AG11" s="21">
+        <f>SUM(AG10:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="16"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AD14" s="23" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="AB7:AC7"/>
+  <mergeCells count="28">
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A7:A8"/>
@@ -1342,9 +1368,27 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CTrang &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/MedicalLink/Templates/BC_PhauThuat_YeuCau_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCau_ThanhToan.xlsx
@@ -71,9 +71,6 @@
     <t>Tiền</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].KTVHOITINH_TIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -482,47 +482,47 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:AH9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,26 +850,26 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="S2" s="10"/>
@@ -882,111 +882,111 @@
       <c r="AD2" s="12"/>
     </row>
     <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="30" t="s">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="30" t="s">
+      <c r="U7" s="29"/>
+      <c r="V7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="31"/>
-      <c r="V7" s="30" t="s">
+      <c r="W7" s="29"/>
+      <c r="X7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="30" t="s">
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="30" t="s">
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="26" t="s">
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="28" t="s">
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1024,42 +1024,42 @@
         <v>14</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="AD8" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="AF8" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AH8" s="29"/>
+      <c r="AH8" s="33"/>
     </row>
     <row r="9" spans="1:34" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -1167,115 +1167,115 @@
     </row>
     <row r="10" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC10" s="22" t="s">
+      <c r="AE10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE10" s="22" t="s">
+      <c r="AF10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AH10" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="AG10" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH10" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="16"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1347,27 +1347,14 @@
       <c r="AH11" s="16"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AF14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
+      <c r="AF14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="AF14:AH14"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G3:O3"/>
@@ -1383,6 +1370,19 @@
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_PhauThuat_YeuCau_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCau_ThanhToan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AH$14</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -228,7 +231,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -430,33 +433,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -479,8 +471,56 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,38 +531,8 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,554 +817,569 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="28.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="28.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="9" customWidth="1"/>
-    <col min="24" max="24" width="28.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="9" customWidth="1"/>
-    <col min="26" max="26" width="28.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="28.28515625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="20" style="12" customWidth="1"/>
-    <col min="30" max="30" width="28.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="8" customWidth="1"/>
+    <col min="29" max="29" width="20" style="8" customWidth="1"/>
+    <col min="30" max="30" width="19.85546875" style="8" customWidth="1"/>
     <col min="31" max="31" width="20" style="1" customWidth="1"/>
-    <col min="32" max="32" width="28.28515625" style="1" customWidth="1"/>
-    <col min="33" max="34" width="20" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20" style="1" customWidth="1"/>
+    <col min="34" max="34" width="18" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26" t="s">
+    <row r="2" spans="1:34" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:34" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:34" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="28" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="28" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="28" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="28" t="s">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="28" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="29"/>
-      <c r="V7" s="28" t="s">
+      <c r="U7" s="31"/>
+      <c r="V7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="29"/>
-      <c r="X7" s="28" t="s">
+      <c r="W7" s="31"/>
+      <c r="X7" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="28" t="s">
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="28" t="s">
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="35" t="s">
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="35" t="s">
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="32" t="s">
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="18" t="s">
+    <row r="8" spans="1:34" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="V8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="19" t="s">
+      <c r="W8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="19" t="s">
+      <c r="X8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" s="19" t="s">
+      <c r="Y8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="19" t="s">
+      <c r="Z8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA8" s="19" t="s">
+      <c r="AA8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="19" t="s">
+      <c r="AB8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AC8" s="19" t="s">
+      <c r="AC8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AF8" s="18" t="s">
+      <c r="AF8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="18" t="s">
+      <c r="AG8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH8" s="33"/>
+      <c r="AH8" s="29"/>
     </row>
-    <row r="9" spans="1:34" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>3</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <v>4</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="12">
         <v>5</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <v>6</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="12">
         <v>7</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="12">
         <v>8</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="12">
         <v>9</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="12">
         <v>10</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="12">
         <v>11</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="12">
         <v>12</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="12">
         <v>13</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="12">
         <v>14</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="12">
         <v>15</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="12">
         <v>16</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="12">
         <v>17</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="12">
         <v>18</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="12">
         <v>19</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="12">
         <v>20</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="12">
         <v>21</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="12">
         <v>22</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="12">
         <v>23</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="12">
         <v>24</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="12">
         <v>25</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="12">
         <v>26</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="12">
         <v>27</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AB9" s="12">
         <v>28</v>
       </c>
-      <c r="AC9" s="17">
+      <c r="AC9" s="12">
         <v>29</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AD9" s="12">
         <v>30</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="12">
         <v>31</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="12">
         <v>32</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AG9" s="12">
         <v>33</v>
       </c>
-      <c r="AH9" s="17">
+      <c r="AH9" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:34" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AB10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AC10" s="22" t="s">
+      <c r="AC10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE10" s="22" t="s">
+      <c r="AE10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AG10" s="22" t="s">
+      <c r="AG10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="13" t="s">
+      <c r="AH10" s="37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:34" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <f>SUM(H10:H10)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
         <f>SUM(K10:K10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
         <f>SUM(M10:M10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
         <f>SUM(O10:O10)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10">
         <f>SUM(Q10:Q10)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10">
         <f>SUM(S10:S10)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10">
         <f>SUM(U10:U10)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15">
+      <c r="V11" s="10"/>
+      <c r="W11" s="10">
         <f>SUM(W10:W10)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15">
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10">
         <f>SUM(Y10:Y10)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15">
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10">
         <f>SUM(AA10:AA10)</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="21">
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="16">
         <f>SUM(AC10:AC10)</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="21">
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="16">
         <f>SUM(AE10:AE10)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="21">
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="16">
         <f>SUM(AG10:AG10)</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="16"/>
+      <c r="AH11" s="11"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AF14" s="34" t="s">
+      <c r="AF14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="AF14:AH14"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G3:O3"/>
@@ -1370,23 +1395,10 @@
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="36" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_PhauThuat_YeuCau_ThanhToan.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCau_ThanhToan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -231,7 +231,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -489,50 +489,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,7 +818,7 @@
   <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,19 +869,19 @@
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="S2" s="7"/>
@@ -894,111 +894,111 @@
       <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:34" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="30" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="30" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="30"/>
+      <c r="T7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="31"/>
-      <c r="V7" s="30" t="s">
+      <c r="U7" s="30"/>
+      <c r="V7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="30" t="s">
+      <c r="W7" s="30"/>
+      <c r="X7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="30" t="s">
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="30" t="s">
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="26" t="s">
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="26" t="s">
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="28" t="s">
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="13" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="AG8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH8" s="29"/>
+      <c r="AH8" s="34"/>
     </row>
     <row r="9" spans="1:34" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1190,7 +1190,7 @@
       <c r="D10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -1277,17 +1277,17 @@
       <c r="AG10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="37" t="s">
+      <c r="AH10" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1359,27 +1359,14 @@
       <c r="AH11" s="11"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AF14" s="23" t="s">
+      <c r="AF14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="AF14:AH14"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G3:O3"/>
@@ -1395,10 +1382,23 @@
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="36" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="35" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
